--- a/Modele_prediction/LSTMAE_LSTM/LSTM Autoencoder and LSTM classifier training report.xlsx
+++ b/Modele_prediction/LSTMAE_LSTM/LSTM Autoencoder and LSTM classifier training report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\Documents\Docs\Polytechnique\Métis\Élec-classification\LSTMAE_LSTM_models_training\LSTMAE_LSTM_models_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\Documents\Classification\Modele_prediction\LSTMAE_LSTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34D7DE4-E28A-4445-8650-A209FEBE0689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2D118-3C87-4544-B266-16E059DEF0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,9 +352,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4743450" cy="5591175"/>
     <xdr:pic>
@@ -375,6 +375,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17678400" y="1905000"/>
+          <a:ext cx="4743450" cy="5591175"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -794,9 +798,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1107,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
